--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43506,6 +43506,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43580,6 +43580,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43617,6 +43617,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43691,6 +43691,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43726,6 +43726,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43763,6 +43763,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,6 +43837,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43874,6 +43874,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43948,6 +43948,78 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>7700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44020,6 +44020,78 @@
         <v>7700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44092,6 +44092,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44129,6 +44129,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44166,6 +44166,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44203,6 +44203,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44238,6 +44238,78 @@
         <v>1600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44310,6 +44310,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44345,6 +44345,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>74300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2027"/>
+  <dimension ref="A1:I2028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71995,6 +71995,41 @@
         <v>74300</v>
       </c>
     </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2028" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2028" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2028" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2028" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2028"/>
+  <dimension ref="A1:I2029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72030,6 +72030,43 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2029" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2029"/>
+  <dimension ref="A1:I2030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72067,6 +72067,43 @@
         </is>
       </c>
     </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2030" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2030" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2030" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2030" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2030"/>
+  <dimension ref="A1:I2031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72104,6 +72104,41 @@
         </is>
       </c>
     </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2031"/>
+  <dimension ref="A1:I2032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72139,6 +72139,43 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I2032" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2032"/>
+  <dimension ref="A1:I2033"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72176,6 +72176,41 @@
         </is>
       </c>
     </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2033" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2033"/>
+  <dimension ref="A1:I2034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72211,6 +72211,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I2034" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2034"/>
+  <dimension ref="A1:I2035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72248,6 +72248,41 @@
         </is>
       </c>
     </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2035" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2035"/>
+  <dimension ref="A1:I2036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72283,6 +72283,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2036" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2036"/>
+  <dimension ref="A1:I2037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72318,6 +72318,41 @@
         <v>1600</v>
       </c>
     </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2037" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2037"/>
+  <dimension ref="A1:I2038"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72353,6 +72353,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2038"/>
+  <dimension ref="A1:I2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72388,6 +72388,41 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>147700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2039"/>
+  <dimension ref="A1:I2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72423,6 +72423,41 @@
         <v>147700</v>
       </c>
     </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>115700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2040"/>
+  <dimension ref="A1:I2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72458,6 +72458,41 @@
         <v>115700</v>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>88000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2041"/>
+  <dimension ref="A1:I2042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72493,6 +72493,41 @@
         <v>88000</v>
       </c>
     </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2788"/>
+  <dimension ref="A1:I2789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98638,6 +98638,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="2789">
+      <c r="A2789" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2789" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2789" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2789" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G2789" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2789" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I2789" t="n">
+        <v>45300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2789"/>
+  <dimension ref="A1:I2790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98673,6 +98673,41 @@
         <v>45300</v>
       </c>
     </row>
+    <row r="2790">
+      <c r="A2790" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2790" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2790" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F2790" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2790" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H2790" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I2790" t="n">
+        <v>167800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2790"/>
+  <dimension ref="A1:I2791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98708,6 +98708,41 @@
         <v>167800</v>
       </c>
     </row>
+    <row r="2791">
+      <c r="A2791" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2791" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2791" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2791" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G2791" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2791" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2791" t="n">
+        <v>79000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2791"/>
+  <dimension ref="A1:I2792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98743,6 +98743,41 @@
         <v>79000</v>
       </c>
     </row>
+    <row r="2792">
+      <c r="A2792" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2792" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2792" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2792" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2792" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H2792" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2792" t="n">
+        <v>82300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2792"/>
+  <dimension ref="A1:I2793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98778,6 +98778,41 @@
         <v>82300</v>
       </c>
     </row>
+    <row r="2793">
+      <c r="A2793" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2793" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2793" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2793" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2793" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G2793" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2793" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2793" t="n">
+        <v>120100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2793"/>
+  <dimension ref="A1:I2794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98813,6 +98813,41 @@
         <v>120100</v>
       </c>
     </row>
+    <row r="2794">
+      <c r="A2794" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2794" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2794" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2794" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2794" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G2794" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2794" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2794" t="n">
+        <v>37700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2794"/>
+  <dimension ref="A1:I2795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98848,6 +98848,41 @@
         <v>37700</v>
       </c>
     </row>
+    <row r="2795">
+      <c r="A2795" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2795" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2795" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2795" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2795" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2795" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2795" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I2795" t="n">
+        <v>533800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2795"/>
+  <dimension ref="A1:I2796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98883,6 +98883,41 @@
         <v>533800</v>
       </c>
     </row>
+    <row r="2796">
+      <c r="A2796" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2796" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2796" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2796" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F2796" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2796" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H2796" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2796" t="n">
+        <v>254800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2796"/>
+  <dimension ref="A1:I2797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98918,6 +98918,41 @@
         <v>254800</v>
       </c>
     </row>
+    <row r="2797">
+      <c r="A2797" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2797" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2797" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2797" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2797" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2797" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2797" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I2797" t="n">
+        <v>269400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2797"/>
+  <dimension ref="A1:I2798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98953,6 +98953,41 @@
         <v>269400</v>
       </c>
     </row>
+    <row r="2798">
+      <c r="A2798" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2798" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2798" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2798" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2798" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2798" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2798" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I2798" t="n">
+        <v>180100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2798"/>
+  <dimension ref="A1:I2800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98988,6 +98988,76 @@
         <v>180100</v>
       </c>
     </row>
+    <row r="2799">
+      <c r="A2799" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2799" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2799" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2799" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F2799" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2799" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H2799" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I2799" t="n">
+        <v>149700</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2800" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2800" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2800" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2800" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2800" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2800" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2800" t="n">
+        <v>47000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2800"/>
+  <dimension ref="A1:I2801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99058,6 +99058,41 @@
         <v>47000</v>
       </c>
     </row>
+    <row r="2801">
+      <c r="A2801" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2801" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2801" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2801" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F2801" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="G2801" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2801" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2801" t="n">
+        <v>38700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2801"/>
+  <dimension ref="A1:I2804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99093,6 +99093,111 @@
         <v>38700</v>
       </c>
     </row>
+    <row r="2802">
+      <c r="A2802" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2802" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2802" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2802" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F2802" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="G2802" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H2802" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2802" t="n">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2803" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2803" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2803" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F2803" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G2803" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H2803" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2803" t="n">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2804" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2804" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2804" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F2804" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G2804" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2804" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2804" t="n">
+        <v>14100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2804"/>
+  <dimension ref="A1:I2805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99198,6 +99198,41 @@
         <v>14100</v>
       </c>
     </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2805" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F2805" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="G2805" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="H2805" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I2805" t="n">
+        <v>11700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2805"/>
+  <dimension ref="A1:I2806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99233,6 +99233,41 @@
         <v>11700</v>
       </c>
     </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2806" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2806" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G2806" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2806" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I2806" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7189.xlsx
+++ b/data/7189.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2806"/>
+  <dimension ref="A1:I2809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99268,6 +99268,113 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2807" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2807" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G2807" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2807" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I2807" t="n">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2808" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F2808" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2808" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H2808" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I2808" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>MBWORLD</t>
+        </is>
+      </c>
+      <c r="E2809" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F2809" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G2809" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H2809" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I2809" t="n">
+        <v>19700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
